--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221130_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221130_AnhTuanNB.xlsx
@@ -105,9 +105,6 @@
     <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 30 tháng 11 năm 2022</t>
-  </si>
-  <si>
     <t>TG102LE-4G</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 05 tháng 12 năm 2022</t>
   </si>
 </sst>
 </file>
@@ -760,6 +760,96 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,96 +863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,7 +1222,7 @@
   <dimension ref="A2:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1242,77 +1242,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="56" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="59" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="59" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1321,58 +1321,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="40">
         <v>861881051079524</v>
@@ -1422,11 +1422,11 @@
         <v>24</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>40</v>
+      <c r="G13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="18"/>
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="40">
         <v>862205051174805</v>
@@ -1446,11 +1446,11 @@
         <v>25</v>
       </c>
       <c r="F14" s="37"/>
-      <c r="G14" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>34</v>
+      <c r="G14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="18"/>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="40">
         <v>861881051082643</v>
@@ -1470,11 +1470,11 @@
         <v>24</v>
       </c>
       <c r="F15" s="37"/>
-      <c r="G15" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>41</v>
+      <c r="G15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="18"/>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="40">
         <v>862205051172056</v>
@@ -1494,11 +1494,11 @@
         <v>25</v>
       </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>35</v>
+      <c r="G16" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="18"/>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="40">
         <v>861881051089317</v>
@@ -1518,11 +1518,11 @@
         <v>24</v>
       </c>
       <c r="F17" s="37"/>
-      <c r="G17" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>40</v>
+      <c r="G17" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="18"/>
@@ -1532,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="40">
         <v>861881051090414</v>
@@ -1542,11 +1542,11 @@
         <v>24</v>
       </c>
       <c r="F18" s="37"/>
-      <c r="G18" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>33</v>
+      <c r="G18" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="18"/>
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="40">
         <v>862205051191346</v>
@@ -1566,11 +1566,11 @@
         <v>25</v>
       </c>
       <c r="F19" s="37"/>
-      <c r="G19" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>34</v>
+      <c r="G19" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="18"/>
@@ -1580,25 +1580,25 @@
         <v>8</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="40">
         <v>868183038540105</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>42</v>
+      <c r="H20" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="18"/>
@@ -1621,26 +1621,26 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="G22" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -1685,45 +1685,45 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
     </row>
     <row r="70" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B8:I8"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
